--- a/data/processed/Excels/X_train_sel_k4.xlsx
+++ b/data/processed/Excels/X_train_sel_k4.xlsx
@@ -463,7 +463,7 @@
         <v>84</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D2" t="n">
         <v>21</v>
@@ -729,7 +729,7 @@
         <v>123</v>
       </c>
       <c r="C21" t="n">
-        <v>57.3</v>
+        <v>50.55</v>
       </c>
       <c r="D21" t="n">
         <v>22</v>
@@ -1051,7 +1051,7 @@
         <v>102</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D44" t="n">
         <v>21</v>
@@ -1331,7 +1331,7 @@
         <v>165</v>
       </c>
       <c r="C64" t="n">
-        <v>52.3</v>
+        <v>50.55</v>
       </c>
       <c r="D64" t="n">
         <v>23</v>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C99" t="n">
         <v>27.7</v>
@@ -2328,7 +2328,7 @@
         <v>32.5</v>
       </c>
       <c r="D135" t="n">
-        <v>70</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="136">
@@ -2395,7 +2395,7 @@
         <v>129</v>
       </c>
       <c r="C140" t="n">
-        <v>67.09999999999999</v>
+        <v>50.55</v>
       </c>
       <c r="D140" t="n">
         <v>26</v>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C154" t="n">
         <v>32</v>
@@ -2608,7 +2608,7 @@
         <v>19.6</v>
       </c>
       <c r="D155" t="n">
-        <v>72</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="156">
@@ -2619,7 +2619,7 @@
         <v>94</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D156" t="n">
         <v>25</v>
@@ -2633,7 +2633,7 @@
         <v>125</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D157" t="n">
         <v>54</v>
@@ -2829,7 +2829,7 @@
         <v>114</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D171" t="n">
         <v>26</v>
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C177" t="n">
         <v>24.7</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="B185" t="n">
         <v>136</v>
@@ -3067,7 +3067,7 @@
         <v>88</v>
       </c>
       <c r="C188" t="n">
-        <v>55</v>
+        <v>50.55</v>
       </c>
       <c r="D188" t="n">
         <v>26</v>
@@ -3484,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C218" t="n">
         <v>41</v>
@@ -3501,7 +3501,7 @@
         <v>118</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D219" t="n">
         <v>21</v>
@@ -3655,7 +3655,7 @@
         <v>180</v>
       </c>
       <c r="C230" t="n">
-        <v>59.4</v>
+        <v>50.55</v>
       </c>
       <c r="D230" t="n">
         <v>25</v>
@@ -3854,7 +3854,7 @@
         <v>35.6</v>
       </c>
       <c r="D244" t="n">
-        <v>68</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="245">
@@ -4279,7 +4279,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="B275" t="n">
         <v>100</v>
@@ -4820,7 +4820,7 @@
         <v>21.7</v>
       </c>
       <c r="D313" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="314">
@@ -5909,7 +5909,7 @@
         <v>115</v>
       </c>
       <c r="C391" t="n">
-        <v>52.9</v>
+        <v>50.55</v>
       </c>
       <c r="D391" t="n">
         <v>28</v>
@@ -6035,10 +6035,10 @@
         <v>136</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D400" t="n">
-        <v>69</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="401">
@@ -6206,7 +6206,7 @@
         <v>26.8</v>
       </c>
       <c r="D412" t="n">
-        <v>69</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="413">
@@ -7051,7 +7051,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="B473" t="n">
         <v>163</v>
@@ -7446,7 +7446,7 @@
         <v>6</v>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C501" t="n">
         <v>39</v>
@@ -7564,7 +7564,7 @@
         <v>26.1</v>
       </c>
       <c r="D509" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="510">
@@ -7933,7 +7933,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="B536" t="n">
         <v>175</v>
@@ -8670,7 +8670,7 @@
         <v>25.9</v>
       </c>
       <c r="D588" t="n">
-        <v>81</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="589">
